--- a/Delegados.xlsx
+++ b/Delegados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Escala-de-Plant-o\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8BB11C-01D6-4E3B-8E44-69CED0BCC499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A819C8-EDB5-49F0-8839-5DA43318CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
   <si>
     <t>Nome</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>(46) 99922-8607</t>
+  </si>
+  <si>
+    <t>TESTE</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -318,11 +321,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,6 +368,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,8 +592,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1230,15 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
+      <c r="A24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="11">
+        <v>23</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>

--- a/Delegados.xlsx
+++ b/Delegados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Escala-de-Plant-o\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A819C8-EDB5-49F0-8839-5DA43318CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E1DFDA-58B2-4BAF-90C7-103A942DA56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t>Nome</t>
   </si>
@@ -250,7 +250,10 @@
     <t>(46) 99922-8607</t>
   </si>
   <si>
-    <t>TESTE</t>
+    <t>Delegado Expediente CM</t>
+  </si>
+  <si>
+    <t>Plantonista Fixo CM</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -368,10 +371,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +597,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1235,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="11">
         <v>23</v>
@@ -1241,7 +1245,15 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
+      <c r="A25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="11">
+        <v>24</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
